--- a/forms/contact/link_facility-create.xlsx
+++ b/forms/contact/link_facility-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="169">
   <si>
     <t>form_title</t>
   </si>
@@ -239,25 +239,7 @@
     <t>roles</t>
   </si>
   <si>
-    <t>chw</t>
-  </si>
-  <si>
-    <t>CHW</t>
-  </si>
-  <si>
     <t>coalesce(../name, ../../contact/name)</t>
-  </si>
-  <si>
-    <t>Mhudumu wa afya</t>
-  </si>
-  <si>
-    <t>chw_supervisor</t>
-  </si>
-  <si>
-    <t>CHW Supervisor</t>
-  </si>
-  <si>
-    <t>Mkuu wa wahudumu wa afya</t>
   </si>
   <si>
     <t>custom_place_name</t>
@@ -302,16 +284,7 @@
     <t>Enter the name of this place</t>
   </si>
   <si>
-    <t>patient</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
     <t>health_center</t>
-  </si>
-  <si>
-    <t>Mgonjwa</t>
   </si>
   <si>
     <t>other</t>
@@ -539,13 +512,22 @@
     <t>concat(../../inputs/meta/location/lat, concat(' ', ../../inputs/meta/location/long))</t>
   </si>
   <si>
-    <t>contact_type="nurse"</t>
-  </si>
-  <si>
     <t>contact:link_facility:create</t>
   </si>
   <si>
     <t>New Link Facility</t>
+  </si>
+  <si>
+    <t>contact_type="health_worker"</t>
+  </si>
+  <si>
+    <t>lab_tech</t>
+  </si>
+  <si>
+    <t>Laboratory Technician</t>
+  </si>
+  <si>
+    <t>Fundi wa maabara</t>
   </si>
 </sst>
 </file>
@@ -1386,10 +1368,10 @@
   <dimension ref="A1:AG998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1400,7 +1382,7 @@
     <col min="4" max="4" width="37.33203125" customWidth="1"/>
     <col min="5" max="5" width="8.109375" customWidth="1"/>
     <col min="6" max="6" width="51.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="25.33203125" customWidth="1"/>
     <col min="10" max="10" width="46.33203125" customWidth="1"/>
@@ -1882,7 +1864,7 @@
     </row>
     <row r="11" spans="1:33" s="61" customFormat="1" ht="13.5" customHeight="1">
       <c r="A11" s="61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B11" s="68" t="s">
         <v>60</v>
@@ -1900,7 +1882,7 @@
         <v>64</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H11" s="60"/>
       <c r="I11" s="60"/>
@@ -1990,7 +1972,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2020,19 +2002,19 @@
         <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2049,7 +2031,7 @@
       <c r="S14" s="23"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2066,16 +2048,16 @@
     </row>
     <row r="15" spans="1:33" ht="14.25" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
@@ -2095,7 +2077,7 @@
       <c r="R15" s="22"/>
       <c r="S15" s="23"/>
       <c r="T15" s="29" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -2116,7 +2098,7 @@
         <v>69</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="20"/>
@@ -2127,7 +2109,7 @@
       <c r="I16" s="15"/>
       <c r="J16" s="15"/>
       <c r="K16" s="28" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2154,10 +2136,10 @@
     </row>
     <row r="17" spans="1:33" ht="14.25" customHeight="1">
       <c r="A17" s="30" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>31</v>
@@ -2183,7 +2165,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
       <c r="T17" s="29" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="U17" s="17"/>
       <c r="V17" s="17"/>
@@ -2204,7 +2186,7 @@
         <v>69</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="20"/>
@@ -2215,7 +2197,7 @@
       <c r="I18" s="17"/>
       <c r="J18" s="17"/>
       <c r="K18" s="31" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L18" s="17"/>
       <c r="M18" s="17"/>
@@ -2285,14 +2267,14 @@
         <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>52</v>
@@ -2329,7 +2311,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>31</v>
@@ -2353,7 +2335,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="23"/>
       <c r="T21" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
@@ -2398,7 +2380,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="23"/>
       <c r="T22" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -2422,10 +2404,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>57</v>
@@ -2434,7 +2416,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2463,16 +2445,16 @@
     </row>
     <row r="24" spans="1:33" ht="14.25" customHeight="1">
       <c r="A24" s="32" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -2482,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
@@ -2510,16 +2492,16 @@
     </row>
     <row r="25" spans="1:33" ht="14.25" customHeight="1">
       <c r="A25" s="32" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2529,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
@@ -2557,16 +2539,16 @@
     </row>
     <row r="26" spans="1:33" ht="14.25" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2603,19 +2585,19 @@
         <v>42</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2650,13 +2632,13 @@
         <v>42</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
@@ -2696,15 +2678,15 @@
         <v>28</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
@@ -2738,7 +2720,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>31</v>
@@ -2781,7 +2763,7 @@
         <v>69</v>
       </c>
       <c r="B31" s="42" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="20"/>
@@ -2792,7 +2774,7 @@
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="30" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L31" s="17"/>
       <c r="M31" s="17"/>
@@ -2822,7 +2804,7 @@
         <v>69</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="20"/>
@@ -2833,7 +2815,7 @@
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="30" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
@@ -2863,7 +2845,7 @@
         <v>69</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C33" s="17"/>
       <c r="D33" s="20"/>
@@ -2874,7 +2856,7 @@
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="30" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
@@ -2978,7 +2960,7 @@
         <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>31</v>
@@ -3023,7 +3005,7 @@
         <v>67</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>31</v>
@@ -3047,7 +3029,7 @@
       <c r="R37" s="22"/>
       <c r="S37" s="23"/>
       <c r="T37" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -3108,22 +3090,22 @@
     </row>
     <row r="39" spans="1:33" ht="14.25" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>57</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -3163,10 +3145,10 @@
         <v>8</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>57</v>
@@ -3177,7 +3159,7 @@
       <c r="I40" s="3"/>
       <c r="J40" s="45"/>
       <c r="K40" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
@@ -3207,13 +3189,13 @@
         <v>42</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -3253,15 +3235,15 @@
         <v>28</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
@@ -3306,7 +3288,7 @@
       <c r="I43" s="49"/>
       <c r="J43" s="49"/>
       <c r="K43" s="49" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L43" s="49"/>
       <c r="M43" s="49"/>
@@ -3336,7 +3318,7 @@
         <v>69</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C44" s="49"/>
       <c r="D44" s="20"/>
@@ -3347,7 +3329,7 @@
       <c r="I44" s="49"/>
       <c r="J44" s="49"/>
       <c r="K44" s="49" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="L44" s="49"/>
       <c r="M44" s="49"/>
@@ -3377,7 +3359,7 @@
         <v>29</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>31</v>
@@ -3422,7 +3404,7 @@
         <v>69</v>
       </c>
       <c r="B46" s="42" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C46" s="17"/>
       <c r="D46" s="20"/>
@@ -3433,7 +3415,7 @@
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
       <c r="K46" s="30" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
@@ -3463,7 +3445,7 @@
         <v>69</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="20"/>
@@ -3474,7 +3456,7 @@
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
       <c r="K47" s="30" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
@@ -3504,7 +3486,7 @@
         <v>69</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="20"/>
@@ -3515,7 +3497,7 @@
       <c r="I48" s="17"/>
       <c r="J48" s="17"/>
       <c r="K48" s="30" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>
@@ -11447,15 +11429,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S979"/>
+  <dimension ref="A1:S977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
@@ -11642,13 +11624,13 @@
         <v>71</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -11671,13 +11653,13 @@
         <v>71</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -11699,43 +11681,43 @@
       <c r="A9" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>82</v>
+      <c r="B9" s="19" t="s">
+        <v>166</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>83</v>
+      <c r="C9" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
     </row>
     <row r="10" spans="1:19" ht="14.25" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -11755,45 +11737,45 @@
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1">
       <c r="A11" s="19" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+    </row>
+    <row r="12" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A12" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>96</v>
+      <c r="B12" s="19" t="s">
+        <v>36</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-    </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A12" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>99</v>
+      <c r="C12" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -11813,16 +11795,16 @@
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1">
       <c r="A13" s="19" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
-      <c r="B13" s="19" t="s">
-        <v>33</v>
+      <c r="B13" s="24" t="s">
+        <v>105</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>34</v>
+      <c r="C13" s="25" t="s">
+        <v>106</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -11842,16 +11824,16 @@
     </row>
     <row r="14" spans="1:19" ht="14.25" customHeight="1">
       <c r="A14" s="19" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
-      <c r="B14" s="19" t="s">
-        <v>36</v>
+      <c r="B14" s="24" t="s">
+        <v>87</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>107</v>
+      <c r="C14" s="25" t="s">
+        <v>110</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -11871,7 +11853,7 @@
     </row>
     <row r="15" spans="1:19" ht="14.25" customHeight="1">
       <c r="A15" s="19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B15" s="24" t="s">
         <v>114</v>
@@ -11880,7 +11862,7 @@
         <v>115</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -11900,16 +11882,16 @@
     </row>
     <row r="16" spans="1:19" ht="14.25" customHeight="1">
       <c r="A16" s="19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -11929,16 +11911,16 @@
     </row>
     <row r="17" spans="1:19" ht="14.25" customHeight="1">
       <c r="A17" s="19" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -11958,16 +11940,16 @@
     </row>
     <row r="18" spans="1:19" ht="14.25" customHeight="1">
       <c r="A18" s="19" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>114</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -11985,19 +11967,11 @@
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
     </row>
-    <row r="19" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>134</v>
-      </c>
+    <row r="19" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -12014,19 +11988,11 @@
       <c r="R19" s="17"/>
       <c r="S19" s="17"/>
     </row>
-    <row r="20" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A20" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>139</v>
-      </c>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="20"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -12088,7 +12054,7 @@
     <row r="23" spans="1:19" ht="15.75" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="20"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
@@ -12109,7 +12075,7 @@
     <row r="24" spans="1:19" ht="15.75" customHeight="1">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="20"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
@@ -12235,7 +12201,7 @@
     <row r="30" spans="1:19" ht="15.75" customHeight="1">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="26"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="20"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
@@ -12256,7 +12222,7 @@
     <row r="31" spans="1:19" ht="15.75" customHeight="1">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="26"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="20"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -16118,46 +16084,46 @@
       <c r="S214" s="17"/>
     </row>
     <row r="215" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A215" s="17"/>
-      <c r="B215" s="17"/>
-      <c r="C215" s="17"/>
-      <c r="D215" s="20"/>
-      <c r="E215" s="17"/>
-      <c r="F215" s="17"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
-      <c r="I215" s="17"/>
-      <c r="J215" s="17"/>
-      <c r="K215" s="17"/>
-      <c r="L215" s="17"/>
-      <c r="M215" s="17"/>
-      <c r="N215" s="17"/>
-      <c r="O215" s="17"/>
-      <c r="P215" s="17"/>
-      <c r="Q215" s="17"/>
-      <c r="R215" s="17"/>
-      <c r="S215" s="17"/>
+      <c r="A215" s="58"/>
+      <c r="B215" s="58"/>
+      <c r="C215" s="58"/>
+      <c r="D215" s="59"/>
+      <c r="E215" s="58"/>
+      <c r="F215" s="58"/>
+      <c r="G215" s="58"/>
+      <c r="H215" s="58"/>
+      <c r="I215" s="58"/>
+      <c r="J215" s="58"/>
+      <c r="K215" s="58"/>
+      <c r="L215" s="58"/>
+      <c r="M215" s="58"/>
+      <c r="N215" s="58"/>
+      <c r="O215" s="58"/>
+      <c r="P215" s="58"/>
+      <c r="Q215" s="58"/>
+      <c r="R215" s="58"/>
+      <c r="S215" s="58"/>
     </row>
     <row r="216" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A216" s="17"/>
-      <c r="B216" s="17"/>
-      <c r="C216" s="17"/>
-      <c r="D216" s="20"/>
-      <c r="E216" s="17"/>
-      <c r="F216" s="17"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="17"/>
-      <c r="I216" s="17"/>
-      <c r="J216" s="17"/>
-      <c r="K216" s="17"/>
-      <c r="L216" s="17"/>
-      <c r="M216" s="17"/>
-      <c r="N216" s="17"/>
-      <c r="O216" s="17"/>
-      <c r="P216" s="17"/>
-      <c r="Q216" s="17"/>
-      <c r="R216" s="17"/>
-      <c r="S216" s="17"/>
+      <c r="A216" s="58"/>
+      <c r="B216" s="58"/>
+      <c r="C216" s="58"/>
+      <c r="D216" s="59"/>
+      <c r="E216" s="58"/>
+      <c r="F216" s="58"/>
+      <c r="G216" s="58"/>
+      <c r="H216" s="58"/>
+      <c r="I216" s="58"/>
+      <c r="J216" s="58"/>
+      <c r="K216" s="58"/>
+      <c r="L216" s="58"/>
+      <c r="M216" s="58"/>
+      <c r="N216" s="58"/>
+      <c r="O216" s="58"/>
+      <c r="P216" s="58"/>
+      <c r="Q216" s="58"/>
+      <c r="R216" s="58"/>
+      <c r="S216" s="58"/>
     </row>
     <row r="217" spans="1:19" ht="15.75" customHeight="1">
       <c r="A217" s="58"/>
@@ -32139,48 +32105,6 @@
       <c r="Q977" s="58"/>
       <c r="R977" s="58"/>
       <c r="S977" s="58"/>
-    </row>
-    <row r="978" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A978" s="58"/>
-      <c r="B978" s="58"/>
-      <c r="C978" s="58"/>
-      <c r="D978" s="59"/>
-      <c r="E978" s="58"/>
-      <c r="F978" s="58"/>
-      <c r="G978" s="58"/>
-      <c r="H978" s="58"/>
-      <c r="I978" s="58"/>
-      <c r="J978" s="58"/>
-      <c r="K978" s="58"/>
-      <c r="L978" s="58"/>
-      <c r="M978" s="58"/>
-      <c r="N978" s="58"/>
-      <c r="O978" s="58"/>
-      <c r="P978" s="58"/>
-      <c r="Q978" s="58"/>
-      <c r="R978" s="58"/>
-      <c r="S978" s="58"/>
-    </row>
-    <row r="979" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A979" s="58"/>
-      <c r="B979" s="58"/>
-      <c r="C979" s="58"/>
-      <c r="D979" s="59"/>
-      <c r="E979" s="58"/>
-      <c r="F979" s="58"/>
-      <c r="G979" s="58"/>
-      <c r="H979" s="58"/>
-      <c r="I979" s="58"/>
-      <c r="J979" s="58"/>
-      <c r="K979" s="58"/>
-      <c r="L979" s="58"/>
-      <c r="M979" s="58"/>
-      <c r="N979" s="58"/>
-      <c r="O979" s="58"/>
-      <c r="P979" s="58"/>
-      <c r="Q979" s="58"/>
-      <c r="R979" s="58"/>
-      <c r="S979" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32250,14 +32174,14 @@
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-02 15-31</v>
+        <v>2022-11-02 16-43</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>

--- a/forms/contact/link_facility-create.xlsx
+++ b/forms/contact/link_facility-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="169">
   <si>
     <t>form_title</t>
   </si>
@@ -1367,11 +1367,11 @@
   </sheetPr>
   <dimension ref="A1:AG998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1926,9 +1926,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -32181,7 +32179,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-02 16-43</v>
+        <v>2022-11-03 14-17</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>

--- a/forms/contact/link_facility-create.xlsx
+++ b/forms/contact/link_facility-create.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="138">
   <si>
     <t>form_title</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>if( ( selected(${is_name_generated}, 'true') or selected(${is_name_generated}, 'yes') ), ${generated_name_translation}, ${custom_place_name})</t>
   </si>
   <si>
     <t>if(selected(${create_new_person},'none'), "", coalesce(${select_person},"NEW"))</t>
@@ -1168,10 +1165,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1185,7 +1182,7 @@
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="25.33203125" customWidth="1"/>
     <col min="9" max="9" width="46.33203125" customWidth="1"/>
-    <col min="10" max="10" width="68.88671875" customWidth="1"/>
+    <col min="10" max="10" width="120.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.44140625" customWidth="1"/>
     <col min="12" max="12" width="33.44140625" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1555,7 +1552,7 @@
         <v>51</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -1644,7 +1641,7 @@
       <c r="I15" s="36"/>
       <c r="J15" s="37"/>
       <c r="M15" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:26" s="35" customFormat="1" ht="14.25" customHeight="1">
@@ -1687,7 +1684,7 @@
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N17" s="36"/>
       <c r="O17" s="36"/>
@@ -1866,7 +1863,7 @@
         <v>54</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>24</v>
@@ -2335,7 +2332,7 @@
         <v>22</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>24</v>
@@ -2443,14 +2440,14 @@
         <v>54</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="16"/>
       <c r="M40" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="14.25" customHeight="1">
@@ -2495,7 +2492,7 @@
     </row>
     <row r="42" spans="1:26" ht="14.25" customHeight="1">
       <c r="A42" s="19" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B42" s="19" t="s">
         <v>8</v>
@@ -2511,9 +2508,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="27"/>
-      <c r="J42" s="3" t="s">
-        <v>130</v>
-      </c>
+      <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
@@ -2616,7 +2611,7 @@
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
       <c r="J45" s="29" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K45" s="29"/>
       <c r="L45" s="29"/>
@@ -2640,7 +2635,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -2650,7 +2645,7 @@
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
       <c r="J46" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K46" s="29"/>
       <c r="L46" s="29"/>
@@ -31051,14 +31046,14 @@
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-07 22-12</v>
+        <v>2022-11-07 22-22</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>

--- a/forms/contact/link_facility-create.xlsx
+++ b/forms/contact/link_facility-create.xlsx
@@ -1165,10 +1165,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -31053,7 +31053,7 @@
       </c>
       <c r="C2" s="5" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2022-11-07 22-22</v>
+        <v>2022-11-08 10-10</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
